--- a/Documentation/(Test) Upgrade Release Notes.xlsx
+++ b/Documentation/(Test) Upgrade Release Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixin.li\Desktop\TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixin.li\Desktop\N4 upgrade\DCB\GitHub - DCB\ACNKristinLi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30432AC-3D7B-4FD6-B46A-27354E7B934C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9828A5-9F02-451A-999A-20B3219ADB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Pre-Cutover Items" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="413">
   <si>
     <t>Item Number</t>
   </si>
@@ -777,9 +777,6 @@
       <t xml:space="preserve">&lt;setting name="ALLOW_TWIN_HAZARD_DISPATCH" value="true"/&gt;
 </t>
     </r>
-  </si>
-  <si>
-    <t>Update ECN4 setting</t>
   </si>
   <si>
     <t>Non-PROD</t>
@@ -1527,6 +1524,12 @@
     <t>Data Patch : update the N4O table crg_bills_of_lading, set the created field 
 to not null where the created is null</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Update ECN4 setting test</t>
   </si>
 </sst>
 </file>
@@ -1933,10 +1936,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2031,7 +2034,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354A9E57-DAD3-4966-B715-BB301F6E439D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2086,7 +2089,7 @@
                   <a14:compatExt spid="_x0000_s2079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B472EBB-C9F8-4E97-99F7-BB99D938EA24}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2141,7 +2144,7 @@
                   <a14:compatExt spid="_x0000_s2080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7939FCC-00CA-4E55-8128-6D8D800FCA5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2196,7 +2199,7 @@
                   <a14:compatExt spid="_x0000_s2094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E942E52-F4A2-48EB-8504-9A8E94A8F368}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2251,7 +2254,7 @@
                   <a14:compatExt spid="_x0000_s2105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF554FC-C74E-4FC3-A977-4971DD0A0E81}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2532,7 +2535,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496C91F5-D6CC-4659-9771-170A940BC544}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2584,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D003C9BE-A30B-4D3D-A0C7-8D4B0D0733AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2636,7 +2639,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940ADA83-7CFB-4FE6-855D-CE9F2F33C1E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2691,7 +2694,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAEDC10-30D6-4DCF-94FC-3A57D15C7CFE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2746,7 +2749,7 @@
                   <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5908187F-F49D-44B3-A956-084C2C046249}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2790,8 +2793,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>3286125</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>1228725</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2801,7 +2804,7 @@
                   <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE139C5-F01B-49DA-9E22-E5CB6F6C35FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2845,8 +2848,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>5715000</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>638175</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2856,7 +2859,7 @@
                   <a14:compatExt spid="_x0000_s1119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505E53C4-CE0C-457A-955A-276975236E5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2900,8 +2903,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>2867025</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>552450</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2911,7 +2914,7 @@
                   <a14:compatExt spid="_x0000_s1120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DF9901-AA10-4C9A-AD93-824D27ABBB76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2955,8 +2958,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1790700</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>561975</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2966,7 +2969,7 @@
                   <a14:compatExt spid="_x0000_s1121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5347013B-0637-42E0-B3B1-D7C13C54CCC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3010,8 +3013,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1371600</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>981075</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3021,7 +3024,7 @@
                   <a14:compatExt spid="_x0000_s1124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80861D72-EB10-41A8-BAEB-C9ED39F9F8E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3065,8 +3068,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>5381625</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>1238250</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3076,7 +3079,7 @@
                   <a14:compatExt spid="_x0000_s1131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAF6FE1-A9E2-473D-99CD-F4F5FB277A5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3120,8 +3123,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>6362700</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>1238250</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3131,7 +3134,7 @@
                   <a14:compatExt spid="_x0000_s1132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE7E707-CEBA-4178-8A9E-056B678661B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3175,8 +3178,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>742950</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3186,7 +3189,7 @@
                   <a14:compatExt spid="_x0000_s1167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6E6C3E-1E2F-46C7-A4CD-C4DFE8A6C5FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3241,7 +3244,7 @@
                   <a14:compatExt spid="_x0000_s1172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCF52E8-E6C4-49D8-8CDC-7B844E1350C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000094040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3285,8 +3288,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1019175</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3296,7 +3299,7 @@
                   <a14:compatExt spid="_x0000_s1184"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22690030-63EF-498E-977D-4F5B75A31D35}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A0040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3340,8 +3343,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1924050</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3351,7 +3354,7 @@
                   <a14:compatExt spid="_x0000_s1186"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9E5496-1785-468D-A3BC-28F39F5BF9CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A2040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3395,8 +3398,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1038225</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>733425</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3406,7 +3409,7 @@
                   <a14:compatExt spid="_x0000_s1187"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F9FA52-229B-44AC-B5F6-04647870210A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A3040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3450,8 +3453,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1524000</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3461,7 +3464,7 @@
                   <a14:compatExt spid="_x0000_s1189"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618EEDC5-1D46-4A70-B927-F8882E3D0832}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A5040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3749,7 +3752,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E623E02-37D4-46D1-BA67-3461C8987981}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3804,7 +3807,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124A4CC5-3C57-4E63-B9A5-CE6161095460}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3859,7 +3862,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CB2412-7684-4106-85E0-784B037803A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4347,7 +4350,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4403,7 +4406,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="75"/>
@@ -4413,7 +4416,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="77"/>
       <c r="J2" s="78" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1">
@@ -4447,7 +4450,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>221</v>
+        <v>412</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>217</v>
@@ -4473,10 +4476,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>128</v>
@@ -4496,7 +4499,9 @@
     </row>
     <row r="6" spans="1:10" ht="27.75" customHeight="1">
       <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
+      <c r="B6" s="64" t="s">
+        <v>411</v>
+      </c>
       <c r="C6" s="64"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
@@ -4860,10 +4865,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>7</v>
@@ -4877,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>217</v>
@@ -4894,14 +4899,14 @@
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60">
@@ -4927,7 +4932,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="46"/>
       <c r="J3" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K3" s="45" t="s">
         <v>10</v>
@@ -4965,7 +4970,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>217</v>
@@ -4982,14 +4987,14 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="L5" s="40" t="s">
         <v>390</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="66.75" customHeight="1">
@@ -4997,7 +5002,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>217</v>
@@ -5023,7 +5028,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>217</v>
@@ -5041,10 +5046,10 @@
       <c r="H7" s="40"/>
       <c r="I7" s="46"/>
       <c r="J7" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L7" s="40"/>
     </row>
@@ -5053,7 +5058,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>217</v>
@@ -5072,7 +5077,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="27"/>
       <c r="K8" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L8" s="40"/>
     </row>
@@ -5081,7 +5086,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>217</v>
@@ -5099,7 +5104,7 @@
       <c r="H9" s="40"/>
       <c r="I9" s="46"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="83"/>
+      <c r="K9" s="84"/>
       <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
@@ -5107,7 +5112,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>217</v>
@@ -5125,7 +5130,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="46"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="83"/>
+      <c r="K10" s="84"/>
       <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1">
@@ -5151,10 +5156,10 @@
       <c r="H11" s="61"/>
       <c r="I11" s="46"/>
       <c r="J11" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L11" s="40"/>
     </row>
@@ -5163,7 +5168,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>217</v>
@@ -5189,7 +5194,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>217</v>
@@ -5207,7 +5212,7 @@
       <c r="H13" s="61"/>
       <c r="I13" s="74"/>
       <c r="J13" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
@@ -5217,7 +5222,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>217</v>
@@ -5236,10 +5241,10 @@
       <c r="I14" s="51"/>
       <c r="J14" s="50"/>
       <c r="K14" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="49" t="s">
         <v>225</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="118.5" customHeight="1">
@@ -5247,13 +5252,13 @@
         <v>47</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>217</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>138</v>
@@ -5264,16 +5269,16 @@
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>119</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="38.25" customHeight="1">
@@ -5281,7 +5286,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>217</v>
@@ -5299,11 +5304,11 @@
       <c r="H16" s="40"/>
       <c r="I16" s="46"/>
       <c r="J16" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K16" s="85"/>
-      <c r="L16" s="84" t="s">
-        <v>346</v>
+      <c r="L16" s="83" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1">
@@ -5311,7 +5316,7 @@
         <v>55</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>217</v>
@@ -5329,10 +5334,10 @@
       <c r="H17" s="40"/>
       <c r="I17" s="46"/>
       <c r="J17" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K17" s="85"/>
-      <c r="L17" s="84"/>
+      <c r="L17" s="83"/>
     </row>
     <row r="18" spans="1:12" s="72" customFormat="1">
       <c r="A18" s="42">
@@ -5342,7 +5347,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="48" t="s">
@@ -5352,12 +5357,12 @@
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
       <c r="I18" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
       <c r="L18" s="58" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5382,7 +5387,7 @@
       <c r="I19" s="55"/>
       <c r="J19" s="71"/>
       <c r="K19" s="69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L19" s="70"/>
     </row>
@@ -5391,7 +5396,7 @@
         <v>69</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>217</v>
@@ -5408,7 +5413,7 @@
       <c r="I20" s="46"/>
       <c r="J20" s="27"/>
       <c r="K20" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L20" s="40"/>
     </row>
@@ -5417,7 +5422,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>217</v>
@@ -5435,7 +5440,7 @@
       <c r="H21" s="40"/>
       <c r="I21" s="46"/>
       <c r="J21" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>119</v>
@@ -5453,7 +5458,7 @@
         <v>217</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>138</v>
@@ -5466,7 +5471,7 @@
       <c r="I22" s="46"/>
       <c r="J22" s="27"/>
       <c r="K22" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L22" s="40"/>
     </row>
@@ -5475,10 +5480,10 @@
         <v>78</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>128</v>
@@ -5494,7 +5499,7 @@
       <c r="I23" s="46"/>
       <c r="J23" s="27"/>
       <c r="K23" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L23" s="45"/>
     </row>
@@ -5503,13 +5508,13 @@
         <v>79</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>168</v>
@@ -5520,14 +5525,14 @@
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="66" customHeight="1">
@@ -5535,13 +5540,13 @@
         <v>79</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>138</v>
@@ -5552,14 +5557,14 @@
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6032,12 +6037,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="30">
       <c r="A2" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>21</v>
@@ -6046,25 +6051,25 @@
         <v>22</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6072,29 +6077,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="F3" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>240</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6102,29 +6107,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E4" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6132,29 +6137,29 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E5" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>247</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6162,29 +6167,29 @@
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E6" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>249</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>250</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="J6" s="33" t="s">
         <v>252</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1">
@@ -6192,31 +6197,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>236</v>
-      </c>
       <c r="D7" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="F7" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="H7" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="I7" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="J7" s="33" t="s">
         <v>259</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1">
@@ -6224,31 +6229,31 @@
         <v>1</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>236</v>
-      </c>
       <c r="D8" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H8" s="33" t="s">
+      <c r="I8" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="J8" s="33" t="s">
         <v>264</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1">
@@ -6256,31 +6261,31 @@
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>236</v>
-      </c>
       <c r="D9" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="J9" s="33" t="s">
         <v>269</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6294,25 +6299,25 @@
         <v>33</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="G10" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="H10" s="33" t="s">
+      <c r="I10" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="J10" s="33" t="s">
         <v>364</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6326,25 +6331,25 @@
         <v>30</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="H11" s="33" t="s">
+      <c r="I11" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>369</v>
-      </c>
       <c r="J11" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6352,29 +6357,29 @@
         <v>0</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="D12" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E12" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>370</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>371</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="I12" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>373</v>
-      </c>
       <c r="J12" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6382,29 +6387,29 @@
         <v>1</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E13" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>374</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>375</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="I13" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="J13" s="33" t="s">
         <v>377</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6412,31 +6417,31 @@
         <v>0</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>236</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="G14" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="I14" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="J14" s="33" t="s">
         <v>382</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6444,29 +6449,29 @@
         <v>1</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="D15" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E15" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>272</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="J15" s="33" t="s">
         <v>274</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6474,29 +6479,29 @@
         <v>1</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E16" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>276</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>277</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="J16" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6504,29 +6509,29 @@
         <v>1</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E17" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>281</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>282</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I17" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J17" s="33" t="s">
         <v>283</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6534,29 +6539,29 @@
         <v>1</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="D18" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E18" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I18" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" s="33" t="s">
         <v>385</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6564,29 +6569,29 @@
         <v>1</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E19" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="J19" s="33" t="s">
         <v>287</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="31" customFormat="1">
@@ -6594,29 +6599,29 @@
         <v>1</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="D20" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E20" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>289</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>290</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="J20" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="31" customFormat="1">
@@ -6624,29 +6629,29 @@
         <v>1</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="D21" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E21" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>294</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I21" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="31" customFormat="1">
@@ -6654,29 +6659,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="D22" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E22" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" s="33" t="s">
         <v>298</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>299</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="J22" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="31" customFormat="1">
@@ -6684,29 +6689,29 @@
         <v>1</v>
       </c>
       <c r="B23" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="D23" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E23" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>303</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>304</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="J23" s="33" t="s">
         <v>306</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="31" customFormat="1">
@@ -6714,29 +6719,29 @@
         <v>1</v>
       </c>
       <c r="B24" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E24" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="J24" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6744,27 +6749,27 @@
         <v>1</v>
       </c>
       <c r="B25" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="D25" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>237</v>
-      </c>
       <c r="E25" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="31" customFormat="1">
@@ -6793,18 +6798,18 @@
     </row>
     <row r="28" spans="1:10" ht="20.25" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="20.25" customHeight="1">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="31" spans="1:10" s="17" customFormat="1" ht="24.75" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="9:10">
@@ -6838,27 +6843,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
         <v>316</v>
-      </c>
-      <c r="D2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="78.75" customHeight="1"/>
     <row r="4" spans="1:4" ht="297" customHeight="1"/>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8526,7 +8531,7 @@
         <v>153</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8608,7 +8613,7 @@
         <v>134</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="86.25" customHeight="1">
@@ -8616,19 +8621,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>133</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="61.5" customHeight="1">
@@ -8646,7 +8651,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -8654,7 +8659,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>133</v>
@@ -8664,7 +8669,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="50.25" customHeight="1">
@@ -8672,17 +8677,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1">
@@ -8702,7 +8707,7 @@
         <v>136</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
@@ -8722,7 +8727,7 @@
         <v>180</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1">
@@ -8730,13 +8735,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C8" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="81" t="s">
         <v>409</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>410</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>137</v>
@@ -8862,7 +8867,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="B3" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -8872,12 +8877,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="30">
@@ -8891,7 +8896,7 @@
         <v>183</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>184</v>
@@ -8909,10 +8914,10 @@
         <v>188</v>
       </c>
       <c r="K8" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>325</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>326</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>189</v>
@@ -8941,7 +8946,7 @@
         <v>196</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>197</v>
@@ -8987,7 +8992,7 @@
         <v>196</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>197</v>
@@ -9031,7 +9036,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>197</v>
@@ -9069,7 +9074,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>197</v>
@@ -9113,21 +9118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B189D02CC4F2E4EB849E1B81E4E4439" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="540013ce737e003674d6eb05c8e71aa7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c94e8d52-508f-4203-8afe-1c5bccd7ba62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c20b3495edfcc628fa38bee0294f95a0" ns2:_="">
     <xsd:import namespace="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
@@ -9291,10 +9281,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A1D4F-997F-4105-B171-4ED9E5AE8D23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9316,19 +9331,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A1D4F-997F-4105-B171-4ED9E5AE8D23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/(Test) Upgrade Release Notes.xlsx
+++ b/Documentation/(Test) Upgrade Release Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixin.li\Desktop\N4 upgrade\DCB\GitHub - DCB\ACNKristinLi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9828A5-9F02-451A-999A-20B3219ADB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E864DF0-A002-47DF-BA28-11614B3E7761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24105" windowHeight="15510" tabRatio="665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Pre-Cutover Items" sheetId="1" r:id="rId1"/>
@@ -3288,8 +3288,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1019175</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4346,11 +4346,11 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4815,11 +4815,11 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5924,8 +5924,8 @@
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>1019175</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9282,18 +9282,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9315,6 +9315,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADD70B2-10FF-4224-B7A3-E4E043449098}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9328,12 +9336,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/(Test) Upgrade Release Notes.xlsx
+++ b/Documentation/(Test) Upgrade Release Notes.xlsx
@@ -5,28 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixin.li\Desktop\N4 upgrade\DCB\GitHub - DCB\ACNKristinLi\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyon.yujun.lai\Documents\GitHub\ACNKristinLi\DomainRep\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E864DF0-A002-47DF-BA28-11614B3E7761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9204D6-C002-4131-AB12-95E252A0159A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24105" windowHeight="15510" tabRatio="665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Pre-Cutover Items" sheetId="1" r:id="rId1"/>
     <sheet name="2. Cutover Items" sheetId="2" r:id="rId2"/>
-    <sheet name="3. Variforms" sheetId="23" r:id="rId3"/>
-    <sheet name="4. Custom Menus" sheetId="24" r:id="rId4"/>
-    <sheet name="5. General Reference" sheetId="10" r:id="rId5"/>
-    <sheet name="6. DBA Action" sheetId="9" r:id="rId6"/>
-    <sheet name="7. New Groovy Job" sheetId="25" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId3"/>
+    <sheet name="3. Variforms" sheetId="23" r:id="rId4"/>
+    <sheet name="4. Custom Menus" sheetId="24" r:id="rId5"/>
+    <sheet name="5. General Reference" sheetId="10" r:id="rId6"/>
+    <sheet name="6. DBA Action" sheetId="9" r:id="rId7"/>
+    <sheet name="7. New Groovy Job" sheetId="25" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. Cutover Items'!$B$1:$L$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. Variforms'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4. Custom Menus'!$A$28:$K$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3. Variforms'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4. Custom Menus'!$A$28:$K$28</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4815,7 +4816,7 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6015,6 +6016,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAE1BDA-80C8-4074-B5F2-ACCDABA46FD7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="284" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -6825,7 +6839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -8285,7 +8299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -8576,7 +8590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -8833,7 +8847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Q12"/>
   <sheetViews>
@@ -9282,18 +9296,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9315,14 +9329,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADD70B2-10FF-4224-B7A3-E4E043449098}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9336,4 +9342,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/(Test) Upgrade Release Notes.xlsx
+++ b/Documentation/(Test) Upgrade Release Notes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyon.yujun.lai\Documents\GitHub\ACNKristinLi\DomainRep\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixin.li\Desktop\N4 upgrade\DCB\GitHub - DCB\ACNKristinLi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9204D6-C002-4131-AB12-95E252A0159A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC97253-CCA5-406B-A2D9-F18013B8CD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Pre-Cutover Items" sheetId="1" r:id="rId1"/>
     <sheet name="2. Cutover Items" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId3"/>
+    <sheet name="Test" sheetId="26" r:id="rId3"/>
     <sheet name="3. Variforms" sheetId="23" r:id="rId4"/>
     <sheet name="4. Custom Menus" sheetId="24" r:id="rId5"/>
     <sheet name="5. General Reference" sheetId="10" r:id="rId6"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3. Variforms'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4. Custom Menus'!$A$28:$K$28</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6016,15 +6016,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAE1BDA-80C8-4074-B5F2-ACCDABA46FD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F409FDDC-1446-4C09-B200-F83F26B971F8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="284" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9132,6 +9139,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B189D02CC4F2E4EB849E1B81E4E4439" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="540013ce737e003674d6eb05c8e71aa7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c94e8d52-508f-4203-8afe-1c5bccd7ba62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c20b3495edfcc628fa38bee0294f95a0" ns2:_="">
     <xsd:import namespace="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
@@ -9295,22 +9317,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADD70B2-10FF-4224-B7A3-E4E043449098}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A1D4F-997F-4105-B171-4ED9E5AE8D23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9326,28 +9357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADD70B2-10FF-4224-B7A3-E4E043449098}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/(Test) Upgrade Release Notes.xlsx
+++ b/Documentation/(Test) Upgrade Release Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixin.li\Desktop\N4 upgrade\DCB\GitHub - DCB\ACNKristinLi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC97253-CCA5-406B-A2D9-F18013B8CD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6616F3F2-91B7-489F-8DC5-CAC8924793E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="105" windowWidth="24105" windowHeight="15510" tabRatio="665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Pre-Cutover Items" sheetId="1" r:id="rId1"/>
@@ -3520,7 +3520,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,7 +3564,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3613,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3657,7 +3657,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3700,7 +3700,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,7 +3753,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3808,7 +3808,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3863,7 +3863,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3918,7 +3918,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3962,7 +3962,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4006,7 +4006,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4050,7 +4050,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6017,16 +6017,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F409FDDC-1446-4C09-B200-F83F26B971F8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="31">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="31">
         <v>123456</v>
       </c>
     </row>
@@ -9139,21 +9234,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B189D02CC4F2E4EB849E1B81E4E4439" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="540013ce737e003674d6eb05c8e71aa7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c94e8d52-508f-4203-8afe-1c5bccd7ba62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c20b3495edfcc628fa38bee0294f95a0" ns2:_="">
     <xsd:import namespace="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
@@ -9317,31 +9397,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADD70B2-10FF-4224-B7A3-E4E043449098}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A1D4F-997F-4105-B171-4ED9E5AE8D23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9357,4 +9428,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96643455-72E5-48F7-B1B0-1EF101958494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADD70B2-10FF-4224-B7A3-E4E043449098}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c94e8d52-508f-4203-8afe-1c5bccd7ba62"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>